--- a/8/4/2/Banco Central de Chile 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/2/Banco Central de Chile 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Serie</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2766,6 +2769,35 @@
         <v>1158</v>
       </c>
     </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>1265</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1265</v>
+      </c>
+      <c r="G75">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <v>88</v>
+      </c>
+      <c r="I75">
+        <v>1165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Banco Central de Chile 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/2/Banco Central de Chile 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Serie</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2798,6 +2801,35 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>3604</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>3604</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>87</v>
+      </c>
+      <c r="I76">
+        <v>3506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
